--- a/biology/Zoologie/Amolops_cremnobatus/Amolops_cremnobatus.xlsx
+++ b/biology/Zoologie/Amolops_cremnobatus/Amolops_cremnobatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amolops cremnobatus est une espèce d'amphibiens de la famille des Ranidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amolops cremnobatus est une espèce d'amphibiens de la famille des Ranidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre entre 200 et 1 300 m d'altitude[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre entre 200 et 1 300 m d'altitude :
 dans le centre du Laos dans les provinces de Borikhamxay et de Khammouane ;
 dans le centre du Viêt Nam dans les provinces de Quảng Bình, de Thanh Hóa, de Hà Tĩnh et de Nghệ An.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amolops cremnobatus mesure de 32 à 34 mm pour les mâles. Son dos est brun jaunâtre[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amolops cremnobatus mesure de 32 à 34 mm pour les mâles. Son dos est brun jaunâtre.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom spécifique cremnobatus vient du grec kremnobates, habitant des lieux escarpés, en référence à la chute abrupte où cette espèce a été découverte[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom spécifique cremnobatus vient du grec kremnobates, habitant des lieux escarpés, en référence à la chute abrupte où cette espèce a été découverte.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Inger &amp; Kottelat, 1998 : A new species of ranid frog from Laos. Raffles Bulletin of Zoology, Singapore, vol. 46, no 1, p. 29-34 (texte intégral).</t>
         </is>
